--- a/distillery_financial_model_v1.xlsx
+++ b/distillery_financial_model_v1.xlsx
@@ -62,6 +62,9 @@
     <definedName name="Net_Revenue">'Revenue Build'!$B$20:$BH$20</definedName>
     <definedName name="Other_Materials">Assumptions!$F$17</definedName>
     <definedName name="Payable_Days">Assumptions!$F$36</definedName>
+    <definedName name="Peak_Cash_Need">'Returns Analysis'!$C$15</definedName>
+    <definedName name="Project_IRR">'Returns Analysis'!$C$12</definedName>
+    <definedName name="Project_MOIC">'Returns Analysis'!$C$13</definedName>
     <definedName name="Rent_per_Month">Assumptions!$F$25</definedName>
     <definedName name="Revenue_Days_Sales">Assumptions!$F$34</definedName>
     <definedName name="SelectedScenario">'Control Panel'!$D$4</definedName>
@@ -82,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="253">
   <si>
     <t>DISTILLERY FINANCIAL MODEL</t>
   </si>
@@ -102,7 +105,7 @@
     <t>Last Updated:</t>
   </si>
   <si>
-    <t>2025-07-07 22:44</t>
+    <t>2025-07-08 01:40</t>
   </si>
   <si>
     <t>MODEL SUMMARY</t>
@@ -789,25 +792,37 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Returns Analysis</t>
-  </si>
-  <si>
-    <t>Unlevered Free Cash Flow</t>
-  </si>
-  <si>
-    <t>Levered Free Cash Flow</t>
+    <t>Free Cash Flow &amp; Returns Analysis</t>
   </si>
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>FCF</t>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Cumulative FCF</t>
+  </si>
+  <si>
+    <t>Investor Cash Flows</t>
+  </si>
+  <si>
+    <t>Key Return Metrics</t>
   </si>
   <si>
     <t>IRR</t>
   </si>
   <si>
     <t>MOIC</t>
+  </si>
+  <si>
+    <t>Payback Period (Years)</t>
+  </si>
+  <si>
+    <t>Peak Funding Need</t>
   </si>
   <si>
     <t>Distillery Performance Dashboard</t>
@@ -819,10 +834,10 @@
     <t>Payback Period</t>
   </si>
   <si>
-    <t>Peak Funding Need</t>
+    <t>Revenue CAGR</t>
   </si>
   <si>
-    <t>Revenue CAGR</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>Avg. EBITDA Margin</t>
@@ -1096,48 +1111,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Cash Flow Statement'!$B$2:$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Month 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Month 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Month 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Month 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Month 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Month 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Month 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Month 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Month 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Month 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Month 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Month 12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'Cash Flow Statement'!$B$1:$M$2</c:f>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1195,6 +1171,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
@@ -1264,150 +1241,9 @@
             <c:v>Net Revenue</c:v>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>'Income Statement'!$B$2:$BH$2</c:f>
-              <c:strCache>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>Month 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Month 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Month 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Month 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Month 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Month 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Month 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Month 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Month 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Month 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Month 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Month 12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Month 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Month 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Month 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Month 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Month 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Month 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Month 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Month 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Month 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Month 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Month 23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Month 24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Month 25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Month 26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Month 27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Month 28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Month 29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Month 30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Month 31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Month 32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Month 33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Month 34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Month 35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Month 36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Q1 2027</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Q2 2027</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Q3 2027</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Q4 2027</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Q1 2028</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Q2 2028</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Q3 2028</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Q4 2028</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2030</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'Income Statement'!$B$1:$BH$2</c:f>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1605,6 +1441,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
@@ -2003,7 +1840,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2140,7 +1977,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -3673,7 +3510,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -7166,7 +7003,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -10673,7 +10510,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -14660,7 +14497,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14731,85 +14568,207 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
         <v>237</v>
+      </c>
+      <c r="B6" s="13">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <f>SUM('Income Statement'!B10:M10)+SUM('Income Statement'!B19:M19)-SUM('CapEx Schedule'!B9:M9)-SUM('Working Capital'!B9:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <f>SUM('Income Statement'!N10:Y10)+SUM('Income Statement'!N19:Y19)-SUM('CapEx Schedule'!N9:Y9)-SUM('Working Capital'!N9:Y9)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <f>SUM('Income Statement'!Z10:AK10)+SUM('Income Statement'!Z19:AK19)-SUM('CapEx Schedule'!Z9:AK9)-SUM('Working Capital'!Z9:AK9)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <f>SUM('Income Statement'!AL10:AO10)+SUM('Income Statement'!AL19:AO19)-SUM('CapEx Schedule'!AL9:AO9)-SUM('Working Capital'!AL9:AO9)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM('Income Statement'!AP10:AS10)+SUM('Income Statement'!AP19:AS19)-SUM('CapEx Schedule'!AP9:AS9)-SUM('Working Capital'!AP9:AS9)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4</v>
+      <c r="B7" s="13">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <f>C6+SUM('Debt Schedule'!B9:M9)+SUM('Debt Schedule'!B6:M6)+SUM('Debt Schedule'!B5:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <f>D6+SUM('Debt Schedule'!N9:Y9)+SUM('Debt Schedule'!N6:Y6)+SUM('Debt Schedule'!N5:Y5)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <f>E6+SUM('Debt Schedule'!Z9:AK9)+SUM('Debt Schedule'!Z6:AK6)+SUM('Debt Schedule'!Z5:AK5)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <f>F6+SUM('Debt Schedule'!AL9:AO9)+SUM('Debt Schedule'!AL6:AO6)+SUM('Debt Schedule'!AL5:AO5)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <f>G6+SUM('Debt Schedule'!AP9:AS9)+SUM('Debt Schedule'!AP6:AS6)+SUM('Debt Schedule'!AP5:AS5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="5" t="s">
         <v>239</v>
       </c>
+      <c r="B8" s="13">
+        <f>B9</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <f>B8+C9</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <f>C8+D9</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <f>D8+E9</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f>E8+F9</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <f>F8+G9</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="5" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C10" s="15">
-        <f>IRR(C8:G8)</f>
+      <c r="B9" s="13">
+        <f>-Initial_Equity</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <f>E7</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <f>F7</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <f>G7+(SUM('Income Statement'!AP10:AS10)*10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="11">
-        <f>SUMIF(C8:G8,"&gt;0")/ABS(SUMIF(C8:G8,"&lt;0"))</f>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="15">
+        <f>IRR(B9:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="11">
+        <f>SUMIF(B9:G9,"&gt;0")/ABS(SUMIF(B9:G9,"&lt;0"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="11">
+        <f>IFERROR(MATCH(TRUE,B8:G8&gt;0,0)-2 + (0-INDEX(B8:G8,MATCH(TRUE,B8:G8&gt;0,0)-1))/INDEX(B9:G9,MATCH(TRUE,B8:G8&gt;0,0)), "Never")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="13">
+        <f>MIN(B8:G8)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Dashboard!A1" display="Go to Dashboard"/>
   </hyperlinks>
@@ -14832,7 +14791,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -14848,35 +14807,35 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D7" s="15">
-        <f>'Returns Analysis'!C10</f>
+        <f>Project_IRR</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D8" s="11">
-        <f>'Returns Analysis'!C11</f>
+        <f>Project_MOIC</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D9" s="11">
-        <f>'Returns Analysis'!C12</f>
+        <f>'Returns Analysis'!C14</f>
         <v>0</v>
       </c>
     </row>
@@ -14884,27 +14843,25 @@
       <c r="B10" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="11">
-        <f>'Returns Analysis'!C13</f>
+      <c r="D10" s="13">
+        <f>Peak_Cash_Need</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="11">
-        <f>'Returns Analysis'!C14</f>
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="15">
-        <f>'Returns Analysis'!C15</f>
-        <v>0</v>
+        <v>251</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -14936,7 +14893,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -15687,7 +15644,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15784,7 +15741,7 @@
   <sheetData>
     <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -16780,7 +16737,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -19803,7 +19760,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -23565,7 +23522,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -26089,7 +26046,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -26350,7 +26307,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -28073,7 +28030,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>

--- a/distillery_financial_model_v1.xlsx
+++ b/distillery_financial_model_v1.xlsx
@@ -54,6 +54,7 @@
     <definedName name="Interest_Rate">Assumptions!$F$41</definedName>
     <definedName name="Inventory_Balance">'Working Capital'!$B$5:$BH$5</definedName>
     <definedName name="Inventory_Days">Assumptions!$F$35</definedName>
+    <definedName name="IRR_Sensitivity_Table">'Returns Analysis'!$B$33:$F$37</definedName>
     <definedName name="Loan_Term_Years">Assumptions!$F$42</definedName>
     <definedName name="Maintenance_CapEx_Pct">Assumptions!$F$31</definedName>
     <definedName name="Marketing_Pct_Revenue">Assumptions!$F$24</definedName>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="269">
   <si>
     <t>DISTILLERY FINANCIAL MODEL</t>
   </si>
@@ -105,7 +106,7 @@
     <t>Last Updated:</t>
   </si>
   <si>
-    <t>2025-07-08 01:40</t>
+    <t>2025-07-08 04:00</t>
   </si>
   <si>
     <t>MODEL SUMMARY</t>
@@ -825,6 +826,54 @@
     <t>Peak Funding Need</t>
   </si>
   <si>
+    <t>IRR Sensitivity – Price vs Volume</t>
+  </si>
+  <si>
+    <t>Row Input: Avg_Price_per_Bottle</t>
+  </si>
+  <si>
+    <t>Col Input: Annual_Growth_Rate</t>
+  </si>
+  <si>
+    <t>Tornado Chart Data</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Low Case</t>
+  </si>
+  <si>
+    <t>High Case</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Price per Bottle</t>
+  </si>
+  <si>
+    <t>Volume Growth</t>
+  </si>
+  <si>
+    <t>COGS per Bottle</t>
+  </si>
+  <si>
+    <t>IRR vs Discount Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>Break-Even Analysis (0% IRR)</t>
+  </si>
+  <si>
+    <t>Price Change</t>
+  </si>
+  <si>
+    <t>Units Needed</t>
+  </si>
+  <si>
     <t>Distillery Performance Dashboard</t>
   </si>
   <si>
@@ -850,11 +899,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="mmm-yy"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="$#,##0"/>
+    <numFmt numFmtId="168" formatCode="0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1000,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,6 +1103,13 @@
     <xf numFmtId="167" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1840,7 +1897,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1977,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -3510,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -7003,7 +7060,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -10510,7 +10567,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -14497,7 +14554,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14568,7 +14625,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14580,7 +14637,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -14768,7 +14825,411 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="C32" s="18">
+        <v>-0.05</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="19">
+        <v>-0.2</v>
+      </c>
+      <c r="B33" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="19">
+        <v>-0.1</v>
+      </c>
+      <c r="B34" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="19">
+        <v>0</v>
+      </c>
+      <c r="B35" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="B36" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="B37" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <f>ABS(C43-B43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="15">
+        <f>ABS(C44-B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="15">
+        <f>ABS(C45-B45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="15">
+        <f>ABS(C46-B46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="15">
+        <f>ABS(C47-B47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="B53" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="B54" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="B55" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="B56" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="B57" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="B58" s="15">
+        <f>Project_IRR</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="20">
+        <v>-0.2</v>
+      </c>
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="20">
+        <v>-0.1</v>
+      </c>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="20">
+        <v>0</v>
+      </c>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="B67" s="11"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B33:F37">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="Dashboard!A1" display="Go to Dashboard"/>
   </hyperlinks>
@@ -14791,7 +15252,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -14807,7 +15268,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -14832,7 +15293,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="5" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="D9" s="11">
         <f>'Returns Analysis'!C14</f>
@@ -14850,18 +15311,18 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="5" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="5" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -14893,7 +15354,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -15644,7 +16105,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15741,7 +16202,7 @@
   <sheetData>
     <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -16737,7 +17198,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -19760,7 +20221,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -23522,7 +23983,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -26046,7 +26507,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -26307,7 +26768,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -28030,7 +28491,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>

--- a/distillery_financial_model_v1.xlsx
+++ b/distillery_financial_model_v1.xlsx
@@ -21,11 +21,13 @@
     <sheet name="Cash Flow Statement" sheetId="12" r:id="rId12"/>
     <sheet name="Balance Sheet" sheetId="13" r:id="rId13"/>
     <sheet name="Cap Table" sheetId="14" r:id="rId14"/>
-    <sheet name="Returns Analysis" sheetId="15" r:id="rId15"/>
-    <sheet name="Dashboard" sheetId="16" r:id="rId16"/>
-    <sheet name="Checks" sheetId="17" r:id="rId17"/>
+    <sheet name="Data Import" sheetId="15" r:id="rId15"/>
+    <sheet name="Returns Analysis" sheetId="16" r:id="rId16"/>
+    <sheet name="Dashboard" sheetId="17" r:id="rId17"/>
+    <sheet name="Checks" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
+    <definedName name="Actuals_Table">'Data Import'!$B$11:$G$130</definedName>
     <definedName name="ActualsCutoff">'Control Panel'!$D$7</definedName>
     <definedName name="Angels_Share_Annual">Assumptions!$F$20</definedName>
     <definedName name="Annual_Growth_Rate">Assumptions!$F$9</definedName>
@@ -35,10 +37,11 @@
     <definedName name="Base_Salaries">Assumptions!$F$23</definedName>
     <definedName name="Bottle_and_Packaging">Assumptions!$F$19</definedName>
     <definedName name="Change_in_NWC">'Working Capital'!$B$9:$BH$9</definedName>
+    <definedName name="DataSourceMode">'Control Panel'!$D$8</definedName>
     <definedName name="Debt_Issuance">'Debt Schedule'!$B$5:$BH$5</definedName>
     <definedName name="Debt_Repayment">'Debt Schedule'!$B$6:$BH$6</definedName>
     <definedName name="Direct_Labor">Assumptions!$F$18</definedName>
-    <definedName name="DiscountRate">'Control Panel'!$D$11</definedName>
+    <definedName name="DiscountRate">'Control Panel'!$D$12</definedName>
     <definedName name="Distributor_Margin">Assumptions!$F$12</definedName>
     <definedName name="Ending_Cash">'Cash Flow Statement'!$B$21:$BH$21</definedName>
     <definedName name="Ending_Debt">'Debt Schedule'!$B$7:$BH$7</definedName>
@@ -69,7 +72,7 @@
     <definedName name="Rent_per_Month">Assumptions!$F$25</definedName>
     <definedName name="Revenue_Days_Sales">Assumptions!$F$34</definedName>
     <definedName name="SelectedScenario">'Control Panel'!$D$4</definedName>
-    <definedName name="TaxRate">'Control Panel'!$D$10</definedName>
+    <definedName name="TaxRate">'Control Panel'!$D$11</definedName>
     <definedName name="Term_Loan">Assumptions!$F$40</definedName>
     <definedName name="Timeline">Assumptions!$B$1:$BH$1</definedName>
     <definedName name="Total_Capex">'CapEx Schedule'!$B$9:$BH$9</definedName>
@@ -85,8 +88,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Model Bot</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The 'Actuals Cutoff Date' and 'Data Source Mode' control how the model integrates actual data from the 'Data Import' sheet. Financial statement formulas will use a pattern like: IF(current_date &gt; ActualsCutoff, forecast_formula, IFERROR(VLOOKUP(current_date, Actuals_Table, ...), forecast_formula)). This allows the model to automatically use actual data when available for a given period and fall back to the forecast if not.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Model Bot</author>
+  </authors>
+  <commentList>
+    <comment ref="B146" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/*
+Sample M query for QuickBooks_Actuals connection:
+let
+    Source = Csv.Document(File.Contents("actuals.csv"),[Delimiter=",", Columns=6, Encoding=1252, QuoteStyle=QuoteStyle.None]),
+    #"Promoted Headers" = Table.PromoteHeaders(Source, [PromoteAllScalars=true]),
+    #"Changed Type" = Table.TransformColumnTypes(#"Promoted Headers",
+        {{"Date", type date}, {"Revenue", type number}, {"COGS", type number},
+         {"OpEx", type number}, {"Units Sold", type number}, {"Cash Balance", type number}})
+in
+    #"Changed Type"
+*/</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="295">
   <si>
     <t>DISTILLERY FINANCIAL MODEL</t>
   </si>
@@ -106,7 +165,7 @@
     <t>Last Updated:</t>
   </si>
   <si>
-    <t>2025-07-08 04:00</t>
+    <t>2025-07-08 04:12</t>
   </si>
   <si>
     <t>MODEL SUMMARY</t>
@@ -142,7 +201,13 @@
     <t>Base Case</t>
   </si>
   <si>
-    <t>Actuals Through:</t>
+    <t>Actuals Cutoff Date:</t>
+  </si>
+  <si>
+    <t>Data Source Mode:</t>
+  </si>
+  <si>
+    <t>Forecast Only</t>
   </si>
   <si>
     <t>Key Global Assumptions</t>
@@ -431,6 +496,78 @@
   </si>
   <si>
     <t>Loan Term Years</t>
+  </si>
+  <si>
+    <t>Connection Metadata</t>
+  </si>
+  <si>
+    <t>Source Name</t>
+  </si>
+  <si>
+    <t>Connection Type</t>
+  </si>
+  <si>
+    <t>Refresh Frequency</t>
+  </si>
+  <si>
+    <t>Last Refresh</t>
+  </si>
+  <si>
+    <t>QuickBooks_Actuals</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>On Open</t>
+  </si>
+  <si>
+    <t>Bank_Statements</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>POS_System</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Actuals – Raw Data (Power Query output area)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Units Sold</t>
+  </si>
+  <si>
+    <t>Cash Balance</t>
+  </si>
+  <si>
+    <t>Variance Analysis (Actuals vs Forecast) – placeholders</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Actuals</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>% Var</t>
   </si>
   <si>
     <t>Unit Sales</t>
@@ -906,7 +1043,7 @@
     <numFmt numFmtId="167" formatCode="$#,##0"/>
     <numFmt numFmtId="168" formatCode="0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,6 +1096,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1897,7 +2040,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2034,7 +2177,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -2177,147 +2320,147 @@
     </row>
     <row r="2" spans="1:61">
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:61">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="B4" s="13">
         <f>'Revenue Build'!B20 / 30 * AR_Days</f>
@@ -2562,7 +2705,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="5" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B5" s="13">
         <f>'COGS Build'!B21</f>
@@ -2807,7 +2950,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="5" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="B6" s="13">
         <f>'COGS Build'!B15 / 30 * AP_Days</f>
@@ -3052,7 +3195,7 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" s="16" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B8" s="13">
         <f>B4+B5-B6</f>
@@ -3297,7 +3440,7 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="16" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="B9" s="13">
         <f>B8</f>
@@ -3567,7 +3710,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -3710,147 +3853,147 @@
     </row>
     <row r="2" spans="1:61">
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:61">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B4" s="13">
         <f>'Revenue Build'!B20</f>
@@ -4095,7 +4238,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="B5" s="13">
         <f>'COGS Build'!B15</f>
@@ -4340,7 +4483,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="16" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B6" s="13">
         <f>B4-B5</f>
@@ -4585,7 +4728,7 @@
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="15" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="B7" s="15">
         <f>B6/B4</f>
@@ -4830,7 +4973,7 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="5" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B9" s="13">
         <f>'OpEx Build'!B17</f>
@@ -5075,7 +5218,7 @@
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="16" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="B10" s="13">
         <f>B6-B9</f>
@@ -5320,7 +5463,7 @@
     </row>
     <row r="11" spans="1:61">
       <c r="A11" s="15" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="B11" s="15">
         <f>B10/B4</f>
@@ -5565,7 +5708,7 @@
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="5" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B13" s="13">
         <f>'CapEx Schedule'!B10</f>
@@ -5810,7 +5953,7 @@
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="16" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B14" s="13">
         <f>B10+B13</f>
@@ -6055,7 +6198,7 @@
     </row>
     <row r="16" spans="1:61">
       <c r="A16" s="5" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B16" s="13">
         <f>-'Debt Schedule'!B9</f>
@@ -6300,7 +6443,7 @@
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="16" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B17" s="13">
         <f>B14-B16</f>
@@ -6545,7 +6688,7 @@
     </row>
     <row r="19" spans="1:61">
       <c r="A19" s="5" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B19" s="13">
         <f>-MAX(0, B17)*TaxRate</f>
@@ -6790,7 +6933,7 @@
     </row>
     <row r="20" spans="1:61">
       <c r="A20" s="16" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B20" s="13">
         <f>B17+B19</f>
@@ -7060,7 +7203,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -7203,152 +7346,152 @@
     </row>
     <row r="2" spans="1:61">
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:61">
       <c r="A3" s="4" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:61">
       <c r="A4" s="5" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B4" s="13">
         <f>'Income Statement'!B20</f>
@@ -7593,7 +7736,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="5" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B5" s="13">
         <f>-'CapEx Schedule'!B10</f>
@@ -7838,7 +7981,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="5" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="B6" s="13">
         <f>-'Working Capital'!B9</f>
@@ -8083,7 +8226,7 @@
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="16" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B7" s="13">
         <f>SUM(B4:B6)</f>
@@ -8328,12 +8471,12 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="4" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="5" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="B10" s="13">
         <f>-'CapEx Schedule'!B9</f>
@@ -8578,7 +8721,7 @@
     </row>
     <row r="11" spans="1:61">
       <c r="A11" s="16" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B11" s="13">
         <f>B10</f>
@@ -8823,12 +8966,12 @@
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="4" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="5" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="B14" s="13">
         <f>'Debt Schedule'!B5</f>
@@ -9073,7 +9216,7 @@
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="5" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="B15" s="13">
         <f>-'Debt Schedule'!B6</f>
@@ -9318,7 +9461,7 @@
     </row>
     <row r="16" spans="1:61">
       <c r="A16" s="5" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="B16" s="13">
         <f>IF(COLUMN()=2, Initial_Equity, 0)</f>
@@ -9563,7 +9706,7 @@
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="16" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="B17" s="13">
         <f>SUM(B14:B16)</f>
@@ -9808,7 +9951,7 @@
     </row>
     <row r="19" spans="1:61">
       <c r="A19" s="16" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="B19" s="13">
         <f>B7+B11+B17</f>
@@ -10053,7 +10196,7 @@
     </row>
     <row r="20" spans="1:61">
       <c r="A20" s="5" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="B20" s="13">
         <v>0</v>
@@ -10297,7 +10440,7 @@
     </row>
     <row r="21" spans="1:61">
       <c r="A21" s="16" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="B21" s="13">
         <f>B19+B20</f>
@@ -10567,7 +10710,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -10710,152 +10853,152 @@
     </row>
     <row r="2" spans="1:61">
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:61">
       <c r="A3" s="4" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:61">
       <c r="A4" s="5" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="B4" s="13">
         <f>'Cash Flow Statement'!B21</f>
@@ -11100,7 +11243,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="5" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="B5" s="13">
         <f>'Working Capital'!B4</f>
@@ -11345,7 +11488,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="5" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B6" s="13">
         <f>'Working Capital'!B5</f>
@@ -11590,7 +11733,7 @@
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="16" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="B7" s="13">
         <f>SUM(B4:B6)</f>
@@ -11835,7 +11978,7 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" s="5" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B8" s="13">
         <f>'CapEx Schedule'!B11</f>
@@ -12080,7 +12223,7 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="16" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B9" s="13">
         <f>B7+B8</f>
@@ -12325,12 +12468,12 @@
     </row>
     <row r="11" spans="1:61">
       <c r="A11" s="4" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:61">
       <c r="A12" s="5" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="B12" s="13">
         <f>'Working Capital'!B6</f>
@@ -12575,7 +12718,7 @@
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="16" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="B13" s="13">
         <f>B12</f>
@@ -12820,7 +12963,7 @@
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="5" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="B14" s="13">
         <f>'Debt Schedule'!B7</f>
@@ -13065,7 +13208,7 @@
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="16" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B15" s="13">
         <f>B13+B14</f>
@@ -13310,7 +13453,7 @@
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="5" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="B17" s="13">
         <f>'Cash Flow Statement'!B16</f>
@@ -13555,7 +13698,7 @@
     </row>
     <row r="18" spans="1:61">
       <c r="A18" s="5" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B18" s="13">
         <f>'Income Statement'!B20</f>
@@ -13800,7 +13943,7 @@
     </row>
     <row r="19" spans="1:61">
       <c r="A19" s="16" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="B19" s="13">
         <f>B17+B18</f>
@@ -14045,7 +14188,7 @@
     </row>
     <row r="20" spans="1:61">
       <c r="A20" s="16" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="B20" s="13">
         <f>B15+B19</f>
@@ -14290,7 +14433,7 @@
     </row>
     <row r="22" spans="1:61">
       <c r="A22" s="5" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="B22" s="13">
         <f>B9-B20</f>
@@ -14554,12 +14697,12 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -14567,21 +14710,21 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="5" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="C5" s="17">
         <f>Initial_Equity</f>
@@ -14597,7 +14740,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="16" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="C6" s="16">
         <f>C5</f>
@@ -14625,6 +14768,1189 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="5" width="18.7109375" customWidth="1"/>
+    <col min="7" max="13" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="9"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="9"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="9"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="9"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="9"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="9"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="9"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="9"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="9"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="9"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="9"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="9"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="9"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="9"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="9"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="9"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="9"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="9"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="9"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="9"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="9"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="9"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="9"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="9"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="9"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="9"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="9"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="9"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="9"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="9"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="9"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="9"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="9"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="9"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="9"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="9"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="9"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="9"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="9"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="9"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="9"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="9"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="9"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="9"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E138" s="13">
+        <f>C138-D138</f>
+        <v>0</v>
+      </c>
+      <c r="F138" s="15">
+        <f>IFERROR(C138/D138-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E139" s="13">
+        <f>C139-D139</f>
+        <v>0</v>
+      </c>
+      <c r="F139" s="15">
+        <f>IFERROR(C139/D139-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E140" s="13">
+        <f>C140-D140</f>
+        <v>0</v>
+      </c>
+      <c r="F140" s="15">
+        <f>IFERROR(C140/D140-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E141" s="13">
+        <f>C141-D141</f>
+        <v>0</v>
+      </c>
+      <c r="F141" s="15">
+        <f>IFERROR(C141/D141-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E142" s="13">
+        <f>C142-D142</f>
+        <v>0</v>
+      </c>
+      <c r="F142" s="15">
+        <f>IFERROR(C142/D142-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B136:G136"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Date required" sqref="B12:B131">
+      <formula1>36526</formula1>
+      <formula2>73415</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Must be a non-negative number" sqref="C12:G131">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Dashboard!A1" display="Go to Dashboard"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14637,17 +15963,17 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -14670,7 +15996,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="B6" s="13">
         <f>0</f>
@@ -14699,7 +16025,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="B7" s="13">
         <f>0</f>
@@ -14728,7 +16054,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="B8" s="13">
         <f>B9</f>
@@ -14757,7 +16083,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="B9" s="13">
         <f>-Initial_Equity</f>
@@ -14786,12 +16112,12 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="C12" s="15">
         <f>IRR(B9:G9)</f>
@@ -14800,7 +16126,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="C13" s="11">
         <f>SUMIF(B9:G9,"&gt;0")/ABS(SUMIF(B9:G9,"&lt;0"))</f>
@@ -14809,7 +16135,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="C14" s="11">
         <f>IFERROR(MATCH(TRUE,B8:G8&gt;0,0)-2 + (0-INDEX(B8:G8,MATCH(TRUE,B8:G8&gt;0,0)-1))/INDEX(B9:G9,MATCH(TRUE,B8:G8&gt;0,0)), "Never")</f>
@@ -14818,7 +16144,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="C15" s="13">
         <f>MIN(B8:G8)</f>
@@ -14827,15 +16153,15 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -14982,29 +16308,29 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="B43" s="15">
         <f>Project_IRR</f>
@@ -15025,7 +16351,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="5" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="B44" s="15">
         <f>Project_IRR</f>
@@ -15046,7 +16372,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B45" s="15">
         <f>Project_IRR</f>
@@ -15067,7 +16393,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="15">
         <f>Project_IRR</f>
@@ -15088,7 +16414,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" s="15">
         <f>Project_IRR</f>
@@ -15109,15 +16435,15 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -15176,15 +16502,15 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -15237,7 +16563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D12"/>
   <sheetViews>
@@ -15252,7 +16578,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -15268,14 +16594,14 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="5" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D7" s="15">
         <f>Project_IRR</f>
@@ -15284,7 +16610,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="5" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="D8" s="11">
         <f>Project_MOIC</f>
@@ -15293,7 +16619,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="D9" s="11">
         <f>'Returns Analysis'!C14</f>
@@ -15302,7 +16628,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="5" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="D10" s="13">
         <f>Peak_Cash_Need</f>
@@ -15311,18 +16637,18 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="5" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="5" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -15340,7 +16666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI4"/>
   <sheetViews>
@@ -15354,12 +16680,12 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:61">
       <c r="A4" s="5" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="B4" s="13">
         <f>'Balance Sheet'!B22</f>
@@ -16092,20 +17418,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -16139,26 +17465,34 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="4" t="s">
+    <row r="8" spans="1:4">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.21</v>
-      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8">
         <v>0.12</v>
       </c>
     </row>
@@ -16166,17 +17500,21 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
       <formula1>"Base Case,Upside Case,Downside Case"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
+      <formula1>"Forecast Only,Actuals + Forecast,Actuals Only"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A1" location="Dashboard!A1" display="Go to Dashboard"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16202,7 +17540,7 @@
   <sheetData>
     <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -16345,142 +17683,142 @@
     </row>
     <row r="2" spans="1:47">
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:47" hidden="1">
@@ -16488,38 +17826,38 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:47">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:47">
       <c r="A7" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -16530,10 +17868,10 @@
     </row>
     <row r="8" spans="1:47">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="10">
         <v>50000</v>
@@ -16549,15 +17887,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:47">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="10">
         <v>0.25</v>
@@ -16576,10 +17914,10 @@
     </row>
     <row r="10" spans="1:47">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="12">
         <v>45</v>
@@ -16595,15 +17933,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:47">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" s="14">
         <v>0.7</v>
@@ -16619,15 +17957,15 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:47">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="10">
         <v>0.3</v>
@@ -16646,10 +17984,10 @@
     </row>
     <row r="13" spans="1:47">
       <c r="A13" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="10">
         <v>2.7</v>
@@ -16668,7 +18006,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="A15" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -16679,10 +18017,10 @@
     </row>
     <row r="16" spans="1:47">
       <c r="A16" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" s="10">
         <v>3.5</v>
@@ -16701,10 +18039,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" s="10">
         <v>4.8</v>
@@ -16723,10 +18061,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C18" s="10">
         <v>2.4</v>
@@ -16745,10 +18083,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C19" s="10">
         <v>7.5</v>
@@ -16767,10 +18105,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C20" s="10">
         <v>0.04</v>
@@ -16789,7 +18127,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -16800,10 +18138,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C23" s="12">
         <v>780000</v>
@@ -16819,15 +18157,15 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C24" s="14">
         <v>0.12</v>
@@ -16843,15 +18181,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C25" s="12">
         <v>25000</v>
@@ -16867,15 +18205,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C26" s="12">
         <v>120000</v>
@@ -16891,12 +18229,12 @@
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -16907,10 +18245,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C29" s="12">
         <v>900000</v>
@@ -16926,15 +18264,15 @@
         <v>0</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C30" s="10">
         <v>500000</v>
@@ -16953,10 +18291,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C31" s="14">
         <v>0.02</v>
@@ -16972,12 +18310,12 @@
         <v>0</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -16988,10 +18326,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C34" s="10">
         <v>45</v>
@@ -17007,15 +18345,15 @@
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C35" s="10">
         <v>180</v>
@@ -17031,15 +18369,15 @@
         <v>0</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C36" s="10">
         <v>30</v>
@@ -17055,12 +18393,12 @@
         <v>0</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -17071,10 +18409,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C39" s="12">
         <v>2000000</v>
@@ -17090,15 +18428,15 @@
         <v>0</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C40" s="12">
         <v>1000000</v>
@@ -17114,15 +18452,15 @@
         <v>0</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" s="10">
         <v>0.08</v>
@@ -17141,10 +18479,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C42" s="12">
         <v>5</v>
@@ -17160,7 +18498,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -17198,7 +18536,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -17341,152 +18679,152 @@
     </row>
     <row r="2" spans="1:61">
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:61">
       <c r="A3" s="4" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:61">
       <c r="A4" s="5" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B4" s="11">
         <f>B6*Wholesale_Pct_of_Sales</f>
@@ -17731,7 +19069,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B5" s="11">
         <f>B6-B4</f>
@@ -17976,7 +19314,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="16" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B6" s="11">
         <f>Year_1_Bottles_Sold/12 * (1+Annual_Growth_Rate)^((COLUMN()-2)/12) * IF(OR(MOD(COLUMN()-2,12)=10,MOD(COLUMN()-2,12)=11),1.4,IF(OR(MOD(COLUMN()-2,12)=0,MOD(COLUMN()-2,12)=1),0.8,1))</f>
@@ -18221,12 +19559,12 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="5" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B9" s="13">
         <f>Avg_Price_per_Bottle*(1-Distributor_Margin)</f>
@@ -18471,7 +19809,7 @@
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="5" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B10" s="13">
         <f>Avg_Price_per_Bottle*1.3</f>
@@ -18716,12 +20054,12 @@
     </row>
     <row r="12" spans="1:61">
       <c r="A12" s="4" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="5" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B13" s="13">
         <f>B4*B9</f>
@@ -18966,7 +20304,7 @@
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="5" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B14" s="13">
         <f>B5*B10</f>
@@ -19211,7 +20549,7 @@
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="16" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B15" s="13">
         <f>B13+B14</f>
@@ -19456,12 +20794,12 @@
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="4" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:61">
       <c r="A18" s="5" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B18" s="13">
         <f>B13/(1-Distributor_Margin)*Distributor_Margin</f>
@@ -19706,7 +21044,7 @@
     </row>
     <row r="19" spans="1:61">
       <c r="A19" s="5" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B19" s="13">
         <f>B6*Excise_Tax_per_Bottle</f>
@@ -19951,7 +21289,7 @@
     </row>
     <row r="20" spans="1:61">
       <c r="A20" s="16" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B20" s="13">
         <f>B15-B18-B19</f>
@@ -20221,7 +21559,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -20364,152 +21702,152 @@
     </row>
     <row r="2" spans="1:61">
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:61">
       <c r="A3" s="4" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:61">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B4" s="13">
         <f>Grain_per_Bottle*B25</f>
@@ -20754,7 +22092,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5" s="13">
         <f>Other_Materials*B25</f>
@@ -20999,7 +22337,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B6" s="13">
         <f>Bottle_and_Packaging*B24</f>
@@ -21244,7 +22582,7 @@
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="16" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B7" s="13">
         <f>SUM(B4:B6)</f>
@@ -21489,12 +22827,12 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="5" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B10" s="13">
         <f>Direct_Labor*B24</f>
@@ -21739,12 +23077,12 @@
     </row>
     <row r="12" spans="1:61">
       <c r="A12" s="4" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="5" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B13" s="13">
         <f>0</f>
@@ -21989,7 +23327,7 @@
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="5" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B14" s="13">
         <f>'CapEx Schedule'!B10</f>
@@ -22234,7 +23572,7 @@
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="16" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="B15" s="13">
         <f>SUM(B7, B10, B14)</f>
@@ -22479,12 +23817,12 @@
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="4" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:61">
       <c r="A18" s="5" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B18" s="13">
         <v>0</v>
@@ -22728,7 +24066,7 @@
     </row>
     <row r="19" spans="1:61">
       <c r="A19" s="5" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B19" s="13">
         <f>B4+B5</f>
@@ -22973,7 +24311,7 @@
     </row>
     <row r="20" spans="1:61">
       <c r="A20" s="5" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B20" s="13">
         <f>B15</f>
@@ -23218,7 +24556,7 @@
     </row>
     <row r="21" spans="1:61">
       <c r="A21" s="16" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B21" s="13">
         <f>B18+B19-B20</f>
@@ -23463,12 +24801,12 @@
     </row>
     <row r="23" spans="1:61">
       <c r="A23" s="4" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:61">
       <c r="A24" s="5" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B24" s="11">
         <f>'Revenue Build'!B6</f>
@@ -23713,7 +25051,7 @@
     </row>
     <row r="25" spans="1:61">
       <c r="A25" s="5" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B25" s="11">
         <f>IFERROR(OFFSET(B24, 0, 24), 0) / (1-Angels_Share_Annual)^2</f>
@@ -23983,7 +25321,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -24126,152 +25464,152 @@
     </row>
     <row r="2" spans="1:61">
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:61">
       <c r="A3" s="4" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:61">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B4" s="13">
         <f>Base_Salaries/12</f>
@@ -24516,7 +25854,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B5" s="13">
         <f>B4*0.20</f>
@@ -24761,7 +26099,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="16" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B6" s="13">
         <f>B4+B5</f>
@@ -25006,12 +26344,12 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" s="4" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="5" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B9" s="13">
         <f>'Revenue Build'!B20*Marketing_Pct_Revenue</f>
@@ -25256,7 +26594,7 @@
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="16" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B10" s="13">
         <f>B9</f>
@@ -25501,12 +26839,12 @@
     </row>
     <row r="12" spans="1:61">
       <c r="A12" s="4" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="5" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B13" s="13">
         <f>Rent_per_Month</f>
@@ -25751,7 +27089,7 @@
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="5" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="B14" s="13">
         <f>Insurance_Annual/12</f>
@@ -25996,7 +27334,7 @@
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="16" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B15" s="13">
         <f>B13+B14</f>
@@ -26241,7 +27579,7 @@
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="16" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B17" s="13">
         <f>B6+B10+B15</f>
@@ -26507,42 +27845,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -26559,10 +27897,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -26579,10 +27917,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -26599,10 +27937,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -26619,10 +27957,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -26639,10 +27977,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -26659,10 +27997,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -26679,10 +28017,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C12" s="10">
         <v>0</v>
@@ -26699,10 +28037,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -26719,7 +28057,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="16" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="C15" s="16">
         <f>SUM(C5:C13)</f>
@@ -26768,7 +28106,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -26911,147 +28249,147 @@
     </row>
     <row r="2" spans="1:61">
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:61">
       <c r="A4" s="5" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B4" s="13">
         <v>0</v>
@@ -27295,12 +28633,12 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B7" s="13">
         <f>Initial_Equipment</f>
@@ -27486,7 +28824,7 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" s="13">
         <f>IF(COLUMN()=2+24, Y3_Expansion, 0)</f>
@@ -27731,7 +29069,7 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="16" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B9" s="13">
         <f>B7+B8</f>
@@ -27976,7 +29314,7 @@
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="5" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B10" s="13">
         <f>-B4/120</f>
@@ -28221,7 +29559,7 @@
     </row>
     <row r="11" spans="1:61">
       <c r="A11" s="16" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="B11" s="13">
         <f>B4+B9+B10</f>
@@ -28491,7 +29829,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -28634,147 +29972,147 @@
     </row>
     <row r="2" spans="1:61">
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:61">
       <c r="A4" s="5" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B4" s="13">
         <v>0</v>
@@ -29018,7 +30356,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="5" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B5" s="13">
         <f>Term_Loan</f>
@@ -29204,7 +30542,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="5" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B6" s="13">
         <f>IF(B4&gt;0, -PPMT(Interest_Rate/12, COLUMN()-2, Loan_Term_Years*12, B4+B5), 0)</f>
@@ -29449,7 +30787,7 @@
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="16" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B7" s="13">
         <f>B4+B5-B6</f>
@@ -29694,7 +31032,7 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="5" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B9" s="13">
         <f>IF(B4&gt;0, -IPMT(Interest_Rate/12, COLUMN()-2, Loan_Term_Years*12, B4+B5), 0)</f>

--- a/distillery_financial_model_v1.xlsx
+++ b/distillery_financial_model_v1.xlsx
@@ -144,8 +144,148 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Interactive elements like buttons and sliders cannot be created with XlsxWriter. They must be added manually in Excel and linked to VBA macros.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>XlsxWriter cannot create sparklines. Please add them manually in Excel via Insert &gt; Sparklines.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>XlsxWriter cannot create sparklines. Please add them manually in Excel via Insert &gt; Sparklines.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>XlsxWriter cannot create sparklines. Please add them manually in Excel via Insert &gt; Sparklines.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>XlsxWriter cannot create sparklines. Please add them manually in Excel via Insert &gt; Sparklines.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>XlsxWriter cannot create sparklines. Please add them manually in Excel via Insert &gt; Sparklines.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>XlsxWriter cannot create sparklines. Please add them manually in Excel via Insert &gt; Sparklines.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Waterfall charts require a helper table with calculated values for start, end, increases, and decreases. This can be built on a separate helper sheet and then linked here.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gauge charts are created by combining and formatting multiple chart types (doughnut and pie). This is an advanced technique best performed manually in Excel.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This table would require VBA or manual runs to populate the values for each scenario.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="316">
   <si>
     <t>DISTILLERY FINANCIAL MODEL</t>
   </si>
@@ -165,7 +305,7 @@
     <t>Last Updated:</t>
   </si>
   <si>
-    <t>2025-07-08 04:12</t>
+    <t>2025-07-08 04:53</t>
   </si>
   <si>
     <t>MODEL SUMMARY</t>
@@ -1014,19 +1154,82 @@
     <t>Distillery Performance Dashboard</t>
   </si>
   <si>
-    <t>Key Metrics</t>
+    <t>Revenue (TTM)</t>
   </si>
   <si>
-    <t>Payback Period</t>
+    <t>[Sparkline] vs LY: +5.0%</t>
   </si>
   <si>
-    <t>Revenue CAGR</t>
+    <t>Gross Margin %</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>EBITDA Margin %</t>
   </si>
   <si>
-    <t>Avg. EBITDA Margin</t>
+    <t>Project IRR</t>
+  </si>
+  <si>
+    <t>Project MOIC</t>
+  </si>
+  <si>
+    <t>Monthly Cash Flow &amp; Burn Analysis</t>
+  </si>
+  <si>
+    <t>Y1 Revenue Waterfall</t>
+  </si>
+  <si>
+    <t>[Waterfall Chart Placeholder]</t>
+  </si>
+  <si>
+    <t>Unit Economics: Contribution Margin</t>
+  </si>
+  <si>
+    <t>[Gauge Chart Placeholder]</t>
+  </si>
+  <si>
+    <t>Scenario Comparison</t>
+  </si>
+  <si>
+    <t>Downside</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>Covenant Compliance Tracker</t>
+  </si>
+  <si>
+    <t>Covenant</t>
+  </si>
+  <si>
+    <t>Current Value</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Months to Breach</t>
+  </si>
+  <si>
+    <t>Debt Service Coverage Ratio (DSCR)</t>
+  </si>
+  <si>
+    <t>&gt; 1.25x</t>
+  </si>
+  <si>
+    <t>Leverage Ratio (Debt/EBITDA)</t>
+  </si>
+  <si>
+    <t>&lt; 4.0x</t>
+  </si>
+  <si>
+    <t>Update Scenario</t>
+  </si>
+  <si>
+    <t>Run Sensitivity</t>
   </si>
   <si>
     <t>Go to Dashboard</t>
@@ -1036,14 +1239,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="mmm-yy"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="$#,##0"/>
     <numFmt numFmtId="168" formatCode="0%"/>
+    <numFmt numFmtId="169" formatCode="$#,##0,&quot;K&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00&quot;x&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,6 +1298,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1193,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1253,6 +1481,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,45 +1522,84 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Monthly Cash Balance (Year 1)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Ending Cash</c:v>
+            <c:strRef>
+              <c:f>'Cash Flow Statement'!A19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Change in Cash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Cash Flow Statement'!$B$1:$M$2</c:f>
+              <c:f>'Cash Flow Statement'!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45627</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cash Flow Statement'!$B$21:$M$21</c:f>
+              <c:f>'Cash Flow Statement'!$B$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1361,24 +1643,22 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:barChart>
+      <c:dateAx>
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="mmm yy" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
@@ -1386,7 +1666,7 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="$#,##0,&quot;K&quot;" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -1394,277 +1674,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Revenue Growth</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Net Revenue</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Income Statement'!$B$1:$BH$2</c:f>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Income Statement'!$B$4:$BH$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="50020001"/>
-        <c:axId val="50020002"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="50020001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50020002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1681,16 +1691,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1704,36 +1714,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2040,7 +2020,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2177,7 +2157,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -3710,7 +3690,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -7203,7 +7183,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -10710,7 +10690,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -14697,7 +14677,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14782,7 +14762,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -15963,7 +15943,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -16565,104 +16545,464 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:18">
+      <c r="B1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7">
-        <f>SelectedScenario</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C5" s="21"/>
+      <c r="E5" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="H5" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="22">
+        <f>SUM('Income Statement'!B4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="E6" s="23">
+        <f>AVERAGE('Income Statement'!B7:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="H6" s="23">
+        <f>AVERAGE('Income Statement'!B11:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="22">
+        <f>Ending_Cash</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="E11" s="23">
         <f>Project_IRR</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="F11" s="23"/>
+      <c r="H11" s="25">
         <f>Project_MOIC</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="5" t="s">
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="11">
-        <f>'Returns Analysis'!C14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="5" t="s">
+      <c r="C13" s="24"/>
+      <c r="E13" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="K16" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="H29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="H33" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="13">
-        <f>Peak_Cash_Need</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>292</v>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" s="11">
+        <f>IFERROR(AVERAGE('Income Statement'!B10:M10)/ABS(AVERAGE('Debt Schedule'!B6:M6)+AVERAGE('Debt Schedule'!B9:M9)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" s="11">
+        <f>IFERROR(Ending_Debt/SUM('Income Statement'!B10:M10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B6:D6"/>
+  <mergeCells count="28">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K16:R25"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F35"/>
+    <mergeCell ref="H28:R28"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Scenario:" sqref="D4">
-      <formula1>'Control Panel'!$D$4</formula1>
-    </dataValidation>
-  </dataValidations>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1.25"/>
+        <cfvo type="num" val="1.5"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16680,7 +17020,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -17431,7 +17771,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -17540,7 +17880,7 @@
   <sheetData>
     <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -18536,7 +18876,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -21559,7 +21899,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -25321,7 +25661,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -27845,7 +28185,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -28106,7 +28446,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
@@ -29829,7 +30169,7 @@
   <sheetData>
     <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B1" s="9">
         <v>45292</v>
